--- a/UT.Vend.BLL/HelperFiles/tblVendState.xlsx
+++ b/UT.Vend.BLL/HelperFiles/tblVendState.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>StateID</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Volteer.Vend.tblVendState</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -571,7 +576,7 @@
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
@@ -582,6 +587,9 @@
       <c r="A1" t="s">
         <v>62</v>
       </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -688,6 +696,10 @@
       <c r="Q3">
         <v>3</v>
       </c>
+      <c r="R3" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;M$2&amp;"],["&amp;N$2&amp;"],["&amp;O$2&amp;"],["&amp;P$2&amp;"],["&amp;Q$2&amp;"]) VALUES ('"&amp;M3&amp;"', '"&amp;N3&amp;"', '"&amp;O3&amp;"', '"&amp;P3&amp;"', '"&amp;Q3&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '5', 'South Atlantic', '3')</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -738,6 +750,10 @@
       <c r="Q4">
         <v>8</v>
       </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R12" si="0">"INSERT INTO Volteer.Vend.tblVendState (["&amp;M$2&amp;"],["&amp;N$2&amp;"],["&amp;O$2&amp;"],["&amp;P$2&amp;"],["&amp;Q$2&amp;"]) VALUES ('"&amp;M4&amp;"', '"&amp;N4&amp;"', '"&amp;O4&amp;"', '"&amp;P4&amp;"', '"&amp;Q4&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '4', 'West North Central', '8')</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -788,6 +804,10 @@
       <c r="Q5">
         <v>9</v>
       </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -838,6 +858,10 @@
       <c r="Q6">
         <v>3</v>
       </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('1', 'Northeast', '2', 'Mid-Atlantic', '3')</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -888,6 +912,10 @@
       <c r="Q7">
         <v>9</v>
       </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -938,6 +966,10 @@
       <c r="Q8">
         <v>11</v>
       </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '6', 'East South Central', '11')</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -988,6 +1020,10 @@
       <c r="Q9">
         <v>10</v>
       </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '8', 'Mountain', '10')</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1038,6 +1074,10 @@
       <c r="Q10">
         <v>9</v>
       </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1088,6 +1128,10 @@
       <c r="Q11">
         <v>7</v>
       </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '3', 'East North Central', '7')</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1137,6 +1181,10 @@
       </c>
       <c r="Q12">
         <v>3</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'FarEast', '3', 'East', '3')</v>
       </c>
     </row>
   </sheetData>

--- a/UT.Vend.BLL/HelperFiles/tblVendState.xlsx
+++ b/UT.Vend.BLL/HelperFiles/tblVendState.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
   <si>
     <t>StateID</t>
   </si>
@@ -562,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,4 +1191,620 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;M$2&amp;"],["&amp;N$2&amp;"],["&amp;O$2&amp;"],["&amp;P$2&amp;"],["&amp;Q$2&amp;"]) VALUES ('"&amp;M3&amp;"', '"&amp;N3&amp;"', '"&amp;O3&amp;"', '"&amp;P3&amp;"', '"&amp;Q3&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '5', 'South Atlantic', '3')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R12" si="0">"INSERT INTO Volteer.Vend.tblVendState (["&amp;M$2&amp;"],["&amp;N$2&amp;"],["&amp;O$2&amp;"],["&amp;P$2&amp;"],["&amp;Q$2&amp;"]) VALUES ('"&amp;M4&amp;"', '"&amp;N4&amp;"', '"&amp;O4&amp;"', '"&amp;P4&amp;"', '"&amp;Q4&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '4', 'West North Central', '8')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('1', 'Northeast', '2', 'Mid-Atlantic', '3')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '6', 'East South Central', '11')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '8', 'Mountain', '10')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '3', 'East North Central', '7')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'FarEast', '3', 'East', '3')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UT.Vend.BLL/HelperFiles/tblVendState.xlsx
+++ b/UT.Vend.BLL/HelperFiles/tblVendState.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="74">
   <si>
     <t>StateID</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Volteer.Vend.tblVendState</t>
+  </si>
+  <si>
+    <t>Table</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,612 +1198,654 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N2&amp;"', '"&amp;O2&amp;"', '"&amp;P2&amp;"', '"&amp;Q2&amp;"', '"&amp;R2&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '5', 'South Atlantic', '3')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N3&amp;"', '"&amp;O3&amp;"', '"&amp;P3&amp;"', '"&amp;Q3&amp;"', '"&amp;R3&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '4', 'West North Central', '8')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+      <c r="S4" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N4&amp;"', '"&amp;O4&amp;"', '"&amp;P4&amp;"', '"&amp;Q4&amp;"', '"&amp;R4&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="S5" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N5&amp;"', '"&amp;O5&amp;"', '"&amp;P5&amp;"', '"&amp;Q5&amp;"', '"&amp;R5&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('1', 'Northeast', '2', 'Mid-Atlantic', '3')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N6&amp;"', '"&amp;O6&amp;"', '"&amp;P6&amp;"', '"&amp;Q6&amp;"', '"&amp;R6&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N7&amp;"', '"&amp;O7&amp;"', '"&amp;P7&amp;"', '"&amp;Q7&amp;"', '"&amp;R7&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '6', 'East South Central', '11')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N8&amp;"', '"&amp;O8&amp;"', '"&amp;P8&amp;"', '"&amp;Q8&amp;"', '"&amp;R8&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '8', 'Mountain', '10')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N9&amp;"', '"&amp;O9&amp;"', '"&amp;P9&amp;"', '"&amp;Q9&amp;"', '"&amp;R9&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3">
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N10&amp;"', '"&amp;O10&amp;"', '"&amp;P10&amp;"', '"&amp;Q10&amp;"', '"&amp;R10&amp;"')"</f>
+        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '3', 'East North Central', '7')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
         <v>50</v>
       </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3">
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="R3" t="str">
-        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;M$2&amp;"],["&amp;N$2&amp;"],["&amp;O$2&amp;"],["&amp;P$2&amp;"],["&amp;Q$2&amp;"]) VALUES ('"&amp;M3&amp;"', '"&amp;N3&amp;"', '"&amp;O3&amp;"', '"&amp;P3&amp;"', '"&amp;Q3&amp;"')"</f>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '5', 'South Atlantic', '3')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" ref="R4:R12" si="0">"INSERT INTO Volteer.Vend.tblVendState (["&amp;M$2&amp;"],["&amp;N$2&amp;"],["&amp;O$2&amp;"],["&amp;P$2&amp;"],["&amp;Q$2&amp;"]) VALUES ('"&amp;M4&amp;"', '"&amp;N4&amp;"', '"&amp;O4&amp;"', '"&amp;P4&amp;"', '"&amp;Q4&amp;"')"</f>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '4', 'West North Central', '8')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6">
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11">
         <v>3</v>
       </c>
-      <c r="R6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('1', 'Northeast', '2', 'Mid-Atlantic', '3')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7">
-        <v>9</v>
-      </c>
-      <c r="P7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8">
+      <c r="Q11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8">
-        <v>11</v>
-      </c>
-      <c r="R8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'South', '6', 'East South Central', '11')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
-      <c r="P9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '8', 'Mountain', '10')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
-      <c r="P10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('4', 'West', '9', 'Pacfic', '9')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-      <c r="R11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('2', 'Midwest', '3', 'East North Central', '7')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="R12" t="str">
-        <f t="shared" si="0"/>
+      <c r="S11" t="str">
+        <f>"INSERT INTO Volteer.Vend.tblVendState (["&amp;N$1&amp;"],["&amp;O$1&amp;"],["&amp;P$1&amp;"],["&amp;Q$1&amp;"],["&amp;R$1&amp;"]) VALUES ('"&amp;N11&amp;"', '"&amp;O11&amp;"', '"&amp;P11&amp;"', '"&amp;Q11&amp;"', '"&amp;R11&amp;"')"</f>
         <v>INSERT INTO Volteer.Vend.tblVendState ([census_region],[census_region_name],[census_division],[census_devision_name],[circuit_court]) VALUES ('3', 'FarEast', '3', 'East', '3')</v>
       </c>
     </row>
